--- a/results/[1_reference]_#_inv_capacity.xlsx
+++ b/results/[1_reference]_#_inv_capacity.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0434820890751533</v>
+        <v>0.04348208907515335</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006716042870696131</v>
+        <v>0.006716042870702146</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.167114853274573</v>
+        <v>0.1671148532745678</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375063</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0.04554729999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>4.743866754021187</v>
+        <v>4.743866754021172</v>
       </c>
       <c r="O2" t="n">
-        <v>3.649165963789687</v>
+        <v>3.649165963789673</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1958319789176156</v>
+        <v>0.195831978917609</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3856886677172245</v>
+        <v>0.3856886677172314</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3689066911829626</v>
+        <v>0.3689066911829627</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0.1457066166666667</v>
       </c>
       <c r="N2" t="n">
-        <v>9.280495176799171</v>
+        <v>9.280495176798702</v>
       </c>
       <c r="O2" t="n">
-        <v>4.639064326839049</v>
+        <v>4.639064326839077</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2343129210336606</v>
+        <v>0.2343129210336771</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8432085885737662</v>
+        <v>0.8432085885737641</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0.3069654999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>18.45135138570284</v>
+        <v>18.45135138570274</v>
       </c>
       <c r="O2" t="n">
-        <v>18.16879531565476</v>
+        <v>18.16879531565474</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_capacity.xlsx
+++ b/results/[1_reference]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04348208907515335</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006716042870702146</v>
+        <v>0.003837439598571479</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1671148532745678</v>
+        <v>0.3718167378372521</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.2494892361375047</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4932329000000002</v>
+        <v>0.3687475729068005</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>0.597153</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04554729999999999</v>
+        <v>0.0822565</v>
       </c>
       <c r="N2" t="n">
-        <v>4.743866754021172</v>
+        <v>12.82009457445576</v>
       </c>
       <c r="O2" t="n">
-        <v>3.649165963789673</v>
+        <v>3.538068880805355</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.195831978917609</v>
+        <v>0.00926038528939491</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.04893136040142869</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3856886677172314</v>
+        <v>0.2216906659485062</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3689066911829627</v>
+        <v>0.4247747675224997</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9462865921503714</v>
+        <v>0.1116199591040388</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1457066166666667</v>
+        <v>0.04737166666666669</v>
       </c>
       <c r="N2" t="n">
-        <v>9.280495176798702</v>
+        <v>5.019474122500005</v>
       </c>
       <c r="O2" t="n">
-        <v>4.639064326839077</v>
+        <v>2.349265400575166</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2343129210336771</v>
+        <v>0.08320518682224694</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.02875797743582353</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8432085885737641</v>
+        <v>0.1707961611009805</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.647856558817037</v>
+        <v>0.4661536766800574</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7873819411829619</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3069654999999999</v>
+        <v>0.04855891666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>18.45135138570274</v>
+        <v>8.420331206844089</v>
       </c>
       <c r="O2" t="n">
-        <v>18.16879531565474</v>
+        <v>4.913850329222639</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_capacity.xlsx
+++ b/results/[1_reference]_#_inv_capacity.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,55 +461,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -517,10 +507,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04348208907515335</v>
+        <v>0.1963705640192075</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006716042870702146</v>
+        <v>0.9761024935937495</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1671148532745678</v>
+        <v>0.3340392584808372</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4932329000000002</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +540,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>3.537106769942445</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04554729999999999</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.743866754021172</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.649165963789673</v>
+        <v>3.364628064996622</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,55 +588,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -660,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.195831978917609</v>
+        <v>0.3586628900861959</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.217704756715491</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3856886677172314</v>
+        <v>0.2310322221934988</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1393700898393662</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3689066911829627</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +667,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9462865921503714</v>
+        <v>14.97506439918126</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1457066166666667</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.280495176798702</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4.639064326839077</v>
+        <v>6.646311143090882</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +715,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -803,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2343129210336771</v>
+        <v>0.9543650821102712</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.604336261573669</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8432085885737641</v>
+        <v>0.02673652576220009</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1261817221222278</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.647856558817037</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +794,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7873819411829619</v>
+        <v>28.2575302572713</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3069654999999999</v>
-      </c>
-      <c r="N2" t="n">
-        <v>18.45135138570274</v>
-      </c>
-      <c r="O2" t="n">
-        <v>18.16879531565474</v>
+        <v>7.28582115024515</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,55 +842,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -982,12 +924,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1002,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,55 +969,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1125,12 +1051,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1145,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,55 +1096,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1268,12 +1178,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[1_reference]_#_inv_capacity.xlsx
+++ b/results/[1_reference]_#_inv_capacity.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -507,28 +517,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1963705640192075</v>
+        <v>0.008591273047792213</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9761024935937495</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.5031130441162281</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3340392584808372</v>
+        <v>0.7500791291218792</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.02935900691239179</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06880566916063374</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063373</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -540,10 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.537106769942445</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.364628064996622</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1490.305292690596</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.364628064996621</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,60 +589,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -634,29 +660,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3586628900861959</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.217704756715491</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.742919626181552</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2310322221934988</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1393700898393662</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -667,10 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.97506439918126</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.646311143090882</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>132.8466098810368</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6.646311143090884</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,60 +732,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -761,28 +803,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9543650821102712</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.604336261573669</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.72946932639293</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02673652576220009</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.4864420908657058</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1261817221222278</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1261817221222202</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -794,10 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.2575302572713</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.28582115024515</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>14.98775517455852</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7.285821150245502</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,60 +875,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -924,6 +982,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.302146184846606</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,60 +1018,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1051,6 +1125,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,60 +1161,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1178,6 +1268,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[1_reference]_#_inv_capacity.xlsx
+++ b/results/[1_reference]_#_inv_capacity.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.008591273047792213</v>
+        <v>0.004179620719100718</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5031130441162281</v>
+        <v>0.3348481087731839</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>0.7500791291218792</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02935900691239179</v>
+        <v>0.2072102501164486</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06880566916063373</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.02920155399019208</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1490.305292690596</v>
+        <v>296.3246900844202</v>
       </c>
       <c r="O2" t="n">
-        <v>3.364628064996621</v>
+        <v>18.5376075435375</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.742919626181552</v>
+        <v>2.093418527249828</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2728063927599206</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1393700898393662</v>
+        <v>0.08027401049170174</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8466098810368</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.646311143090884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.5041039197228206</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.72946932639293</v>
+        <v>1.773008433034486</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4864420908657058</v>
+        <v>0.08505483779796685</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1261817221222202</v>
+        <v>0.1984640319946219</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14.98775517455852</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.285821150245502</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.302146184846606</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>

--- a/results/[1_reference]_#_inv_capacity.xlsx
+++ b/results/[1_reference]_#_inv_capacity.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.004179620719100718</v>
+        <v>0.1776290666976794</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3348481087731839</v>
+        <v>0.3049989518669108</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>0.7500791291218792</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2072102501164486</v>
+        <v>0.3246412772229667</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063373</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02920155399019208</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>296.3246900844202</v>
+        <v>7.974508151280195</v>
       </c>
       <c r="O2" t="n">
-        <v>18.5376075435375</v>
+        <v>3.364628064996621</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.1753079941394415</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.093418527249828</v>
+        <v>2.221549911959094</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2728063927599206</v>
+        <v>0.2404302034513693</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08027401049170174</v>
+        <v>0.1393700898393662</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26.39244093624956</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.646311143090884</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5041039197228206</v>
+        <v>0.915522560901751</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.773008433034486</v>
+        <v>1.605056394348622</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08505483779796685</v>
+        <v>0.03015563704984403</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1984640319946219</v>
+        <v>0.1261817221222202</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>25.6219514182791</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.285821150245516</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_capacity.xlsx
+++ b/results/[1_reference]_#_inv_capacity.xlsx
@@ -517,28 +517,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1776290666976794</v>
+        <v>0.1774173491026326</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3049989518669108</v>
+        <v>0.6988865504857342</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7500791291218792</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3246412772229667</v>
+        <v>0.3247024241048813</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06880566916063373</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.974508151280195</v>
+        <v>7.86217612746788</v>
       </c>
       <c r="O2" t="n">
         <v>3.364628064996621</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1753079941394415</v>
+        <v>0.1784518902710298</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.221549911959094</v>
+        <v>2.220795686899256</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2404302034513693</v>
+        <v>0.2403690565694547</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.39244093624956</v>
+        <v>26.09700856829474</v>
       </c>
       <c r="O2" t="n">
         <v>6.646311143090884</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.915522560901751</v>
+        <v>0.9125903823652095</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.605056394348622</v>
+        <v>1.605660048695328</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03015563704984403</v>
+        <v>0.03015563704984447</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1261817221222202</v>
+        <v>0.1261817221222211</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>25.6219514182791</v>
+        <v>26.02971581004623</v>
       </c>
       <c r="O2" t="n">
-        <v>7.285821150245516</v>
+        <v>7.285821150245459</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_capacity.xlsx
+++ b/results/[1_reference]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003837439598571479</v>
+        <v>0.003676399999999996</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3718167378372521</v>
+        <v>0.3723754890751533</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375047</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3687475729068005</v>
+        <v>0.3669021</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.597153</v>
+        <v>0.5961429402307628</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0822565</v>
+        <v>0.08239116666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>12.82009457445576</v>
+        <v>12.8635987649262</v>
       </c>
       <c r="O2" t="n">
-        <v>3.538068880805355</v>
+        <v>3.475337169561456</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00926038528939491</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04893136040142869</v>
+        <v>0.07303256386250129</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2216906659485062</v>
+        <v>0.3631316904166156</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4247747675224997</v>
+        <v>0.5885074589970624</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1116199591040388</v>
+        <v>0.2665297855399429</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04737166666666669</v>
+        <v>0.08149483333333339</v>
       </c>
       <c r="N2" t="n">
-        <v>5.019474122500005</v>
+        <v>9.162835765309502</v>
       </c>
       <c r="O2" t="n">
-        <v>2.349265400575166</v>
+        <v>3.796216567043731</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.08320518682224694</v>
+        <v>0.09755888307768205</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02875797743582353</v>
+        <v>0.02260130000000005</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1707961611009805</v>
+        <v>0.157203120885189</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4661536766800574</v>
+        <v>0.4465676932758833</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04855891666666667</v>
+        <v>0.04772566666666656</v>
       </c>
       <c r="N2" t="n">
-        <v>8.420331206844089</v>
+        <v>8.874638901356299</v>
       </c>
       <c r="O2" t="n">
-        <v>4.913850329222639</v>
+        <v>5.278131227895732</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_capacity.xlsx
+++ b/results/[1_reference]_#_inv_capacity.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.86217612746788</v>
+        <v>7.862176127467881</v>
       </c>
       <c r="O2" t="n">
         <v>3.364628064996621</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.09700856829474</v>
+        <v>26.09700856829469</v>
       </c>
       <c r="O2" t="n">
-        <v>6.646311143090884</v>
+        <v>6.646311143090879</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9125903823652095</v>
+        <v>0.9125903823652721</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.605660048695328</v>
+        <v>1.605660048695323</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03015563704984447</v>
+        <v>0.03015563704978652</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1261817221222211</v>
+        <v>0.1261817221222317</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.02971581004623</v>
+        <v>26.02971581004517</v>
       </c>
       <c r="O2" t="n">
-        <v>7.285821150245459</v>
+        <v>7.285821150244985</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_capacity.xlsx
+++ b/results/[1_reference]_#_inv_capacity.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1774173491026326</v>
+        <v>0.1774173491026328</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6988865504857342</v>
+        <v>0.698886550485734</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3247024241048813</v>
+        <v>0.3247024241048815</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.862176127467881</v>
+        <v>7.862176127467895</v>
       </c>
       <c r="O2" t="n">
-        <v>3.364628064996621</v>
+        <v>3.364628064996624</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1784518902710298</v>
+        <v>0.1784518902710296</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2403690565694547</v>
+        <v>0.2403690565694545</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.09700856829469</v>
+        <v>26.09700856829415</v>
       </c>
       <c r="O2" t="n">
-        <v>6.646311143090879</v>
+        <v>6.64631114309088</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9125903823652721</v>
+        <v>0.9125903823653032</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.605660048695323</v>
+        <v>1.605660048695321</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03015563704978652</v>
+        <v>0.0301556370497581</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1261817221222317</v>
+        <v>0.1261817221222217</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.02971581004517</v>
+        <v>26.02971581004486</v>
       </c>
       <c r="O2" t="n">
-        <v>7.285821150244985</v>
+        <v>7.285821150245434</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_capacity.xlsx
+++ b/results/[1_reference]_#_inv_capacity.xlsx
@@ -556,10 +556,10 @@
         <v>0.08239116666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>12.8635987649262</v>
+        <v>12.86359876492619</v>
       </c>
       <c r="O2" t="n">
-        <v>3.475337169561456</v>
+        <v>3.475337169561457</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5885074589970624</v>
+        <v>0.5885074589970627</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0.08149483333333339</v>
       </c>
       <c r="N2" t="n">
-        <v>9.162835765309502</v>
+        <v>9.162835765309532</v>
       </c>
       <c r="O2" t="n">
-        <v>3.796216567043731</v>
+        <v>3.796216567043722</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.09755888307768205</v>
+        <v>0.09755888307768429</v>
       </c>
       <c r="B2" t="n">
         <v>0.02260130000000005</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.157203120885189</v>
+        <v>0.1572031208851888</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4465676932758833</v>
+        <v>0.4465676932758799</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0.04772566666666656</v>
       </c>
       <c r="N2" t="n">
-        <v>8.874638901356299</v>
+        <v>8.874638901356189</v>
       </c>
       <c r="O2" t="n">
-        <v>5.278131227895732</v>
+        <v>5.278131227895773</v>
       </c>
     </row>
   </sheetData>
